--- a/dashboard/add.xlsx
+++ b/dashboard/add.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLOCKCHAIN DEV\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pluton_project\Trapdart\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
     <t>0xdD2FD4581271e230360230F9337D5c0430Bf44C0</t>
   </si>
   <si>
-    <t>0x2c0DeDD0218E0414564c9A4Ae7f8B51fc2644e9F</t>
+    <t>0x48d3788eacEe5235Fa855fE23F22A77d779e9B1C</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/dashboard/add.xlsx
+++ b/dashboard/add.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>0xc071e15c98752b3A8B8364038b55dad4813ACE41</t>
-  </si>
-  <si>
-    <t>0xdD2FD4581271e230360230F9337D5c0430Bf44C0</t>
   </si>
   <si>
     <t>0x48d3788eacEe5235Fa855fE23F22A77d779e9B1C</t>
@@ -358,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,7 +368,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
@@ -379,11 +376,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
